--- a/frontend/download/excel/学生信息表.xlsx
+++ b/frontend/download/excel/学生信息表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>姓名</t>
   </si>
@@ -50,13 +50,219 @@
   </si>
   <si>
     <t>类型</t>
+  </si>
+  <si>
+    <t>希瓦娜</t>
+  </si>
+  <si>
+    <t>2019-02-12</t>
+  </si>
+  <si>
+    <t>电六战争学院</t>
+  </si>
+  <si>
+    <t>2017-09-01</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示一班）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示班长）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示团员）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示理科）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -64,6 +270,25 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -86,14 +311,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -392,50 +625,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2">
+        <v>20170104</v>
+      </c>
+      <c r="C2" s="2">
+        <v>20170104</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
